--- a/stats.xlsx
+++ b/stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\Flatiron\Capstone\sports_predictions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED38AE38-0AD4-4B65-99E1-94C23DEE71F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CBEC45-3AB3-4362-AFE5-C638C0551FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3315" yWindow="3150" windowWidth="21600" windowHeight="11835" xr2:uid="{DD114168-415D-4080-8C71-BE6BCC24E486}"/>
   </bookViews>
@@ -636,266 +636,266 @@
     </row>
     <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>114.5</v>
+        <v>103.5</v>
       </c>
       <c r="B2" s="1">
-        <v>117.5</v>
+        <v>101.3</v>
       </c>
       <c r="C2" s="1">
-        <v>0.51900000000000002</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="D2" s="1">
-        <v>0.23</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>23.2</v>
+        <v>23.7</v>
       </c>
       <c r="F2" s="1">
-        <v>75</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="G2" s="1">
-        <v>61.9</v>
+        <v>63.2</v>
       </c>
       <c r="H2" s="1">
-        <v>9.5</v>
+        <v>8.1</v>
       </c>
       <c r="I2" s="1">
-        <v>4.9000000000000004</v>
+        <v>3.8</v>
       </c>
       <c r="J2" s="1">
-        <v>11.7</v>
+        <v>14.9</v>
       </c>
       <c r="K2" s="1">
-        <v>110.3</v>
+        <v>106.9</v>
       </c>
       <c r="L2" s="1">
-        <v>113.2</v>
+        <v>104.6</v>
       </c>
       <c r="M2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N2" s="1">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="O2" s="1">
-        <v>110.8</v>
+        <v>107.9</v>
       </c>
       <c r="P2" s="1">
-        <v>109.6</v>
+        <v>107.2</v>
       </c>
       <c r="Q2" s="1">
-        <v>0.53100000000000003</v>
+        <v>0.504</v>
       </c>
       <c r="R2" s="1">
-        <v>0.24399999999999999</v>
+        <v>0.223</v>
       </c>
       <c r="S2" s="1">
-        <v>22.8</v>
+        <v>22.4</v>
       </c>
       <c r="T2" s="1">
-        <v>76.5</v>
+        <v>77.3</v>
       </c>
       <c r="U2" s="1">
-        <v>55.5</v>
+        <v>56.3</v>
       </c>
       <c r="V2" s="1">
-        <v>7.5</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="W2" s="1">
         <v>6.3</v>
       </c>
       <c r="X2" s="1">
-        <v>11.9</v>
+        <v>12.8</v>
       </c>
       <c r="Y2" s="1">
-        <v>112.2</v>
+        <v>106.4</v>
       </c>
       <c r="Z2" s="1">
-        <v>111</v>
+        <v>105.7</v>
       </c>
       <c r="AA2" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB2" s="1">
-        <v>0.83333333330000003</v>
+        <v>0.5</v>
       </c>
       <c r="AC2" s="2">
-        <v>-1.5</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>108.4</v>
+        <v>97.6</v>
       </c>
       <c r="B3" s="2">
-        <v>108.2</v>
+        <v>107.3</v>
       </c>
       <c r="C3" s="2">
-        <v>0.502</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="D3" s="2">
-        <v>0.22600000000000001</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="E3" s="2">
         <v>21</v>
       </c>
       <c r="F3" s="2">
-        <v>77.2</v>
+        <v>75.7</v>
       </c>
       <c r="G3" s="2">
-        <v>56.9</v>
+        <v>61.2</v>
       </c>
       <c r="H3" s="2">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="I3" s="2">
-        <v>6.5</v>
+        <v>5.2</v>
       </c>
       <c r="J3" s="2">
-        <v>12.2</v>
+        <v>14</v>
       </c>
       <c r="K3" s="2">
-        <v>105.9</v>
+        <v>99.5</v>
       </c>
       <c r="L3" s="2">
-        <v>105.7</v>
+        <v>109.4</v>
       </c>
       <c r="M3" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N3" s="2">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="O3" s="2">
-        <v>108.1</v>
+        <v>110.3</v>
       </c>
       <c r="P3" s="2">
-        <v>107.9</v>
+        <v>111</v>
       </c>
       <c r="Q3" s="2">
-        <v>0.52</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="R3" s="2">
-        <v>0.215</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="S3" s="2">
-        <v>22.1</v>
+        <v>21</v>
       </c>
       <c r="T3" s="2">
-        <v>78.2</v>
+        <v>75.7</v>
       </c>
       <c r="U3" s="2">
-        <v>54.9</v>
+        <v>55.9</v>
       </c>
       <c r="V3" s="2">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="W3" s="2">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="X3" s="2">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="Y3" s="2">
-        <v>107.9</v>
+        <v>109.3</v>
       </c>
       <c r="Z3" s="2">
-        <v>107.7</v>
+        <v>110</v>
       </c>
       <c r="AA3" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB3" s="2">
-        <v>0.71428571429999999</v>
+        <v>0.42857142860000003</v>
       </c>
       <c r="AC3" s="2">
-        <v>-1</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>105</v>
+        <v>108.7</v>
       </c>
       <c r="B4" s="2">
-        <v>104.3</v>
+        <v>103.8</v>
       </c>
       <c r="C4" s="2">
-        <v>0.52500000000000002</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="D4" s="2">
-        <v>0.24299999999999999</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="E4" s="2">
-        <v>24.4</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="F4" s="2">
-        <v>73.3</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="G4" s="2">
-        <v>63.3</v>
+        <v>57.7</v>
       </c>
       <c r="H4" s="2">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="I4" s="2">
-        <v>3.7</v>
+        <v>5.9</v>
       </c>
       <c r="J4" s="2">
-        <v>14.8</v>
+        <v>12.9</v>
       </c>
       <c r="K4" s="2">
-        <v>107.9</v>
+        <v>108.3</v>
       </c>
       <c r="L4" s="2">
-        <v>107.1</v>
+        <v>103.4</v>
       </c>
       <c r="M4" s="2">
         <v>12</v>
       </c>
       <c r="N4" s="2">
-        <v>0.5</v>
+        <v>0.83333333330000003</v>
       </c>
       <c r="O4" s="2">
-        <v>96.6</v>
+        <v>102.1</v>
       </c>
       <c r="P4" s="2">
-        <v>106.9</v>
+        <v>111.7</v>
       </c>
       <c r="Q4" s="2">
-        <v>0.45700000000000002</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="R4" s="2">
-        <v>0.23699999999999999</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="S4" s="2">
-        <v>23.3</v>
+        <v>25.8</v>
       </c>
       <c r="T4" s="2">
-        <v>79.900000000000006</v>
+        <v>78</v>
       </c>
       <c r="U4" s="2">
-        <v>58.9</v>
+        <v>62.9</v>
       </c>
       <c r="V4" s="2">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="W4" s="2">
-        <v>5.0999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="X4" s="2">
-        <v>13.4</v>
+        <v>13.9</v>
       </c>
       <c r="Y4" s="2">
-        <v>98</v>
+        <v>104.2</v>
       </c>
       <c r="Z4" s="2">
-        <v>108.4</v>
+        <v>114</v>
       </c>
       <c r="AA4" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AB4" s="2">
-        <v>0.2</v>
+        <v>0.14285714290000001</v>
       </c>
       <c r="AC4" s="2">
         <v>4.5</v>
@@ -903,636 +903,636 @@
     </row>
     <row r="5" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>103.8</v>
+        <v>107.5</v>
       </c>
       <c r="B5" s="2">
-        <v>111.3</v>
+        <v>110.1</v>
       </c>
       <c r="C5" s="2">
-        <v>0.51200000000000001</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="D5" s="2">
-        <v>0.29399999999999998</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="E5" s="2">
-        <v>21.6</v>
+        <v>25.2</v>
       </c>
       <c r="F5" s="2">
-        <v>76.599999999999994</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="G5" s="2">
-        <v>56.4</v>
+        <v>55</v>
       </c>
       <c r="H5" s="2">
-        <v>8.3000000000000007</v>
+        <v>6.4</v>
       </c>
       <c r="I5" s="2">
-        <v>4.4000000000000004</v>
+        <v>3.6</v>
       </c>
       <c r="J5" s="2">
-        <v>16.899999999999999</v>
+        <v>11.4</v>
       </c>
       <c r="K5" s="2">
-        <v>101.3</v>
+        <v>109.7</v>
       </c>
       <c r="L5" s="2">
-        <v>108.6</v>
+        <v>112.4</v>
       </c>
       <c r="M5" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N5" s="1">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="O5" s="1">
-        <v>110.1</v>
+        <v>99.1</v>
       </c>
       <c r="P5" s="2">
-        <v>109.2</v>
+        <v>108.7</v>
       </c>
       <c r="Q5" s="2">
-        <v>0.53400000000000003</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="R5" s="2">
-        <v>0.2</v>
+        <v>0.222</v>
       </c>
       <c r="S5" s="2">
-        <v>24</v>
+        <v>22.3</v>
       </c>
       <c r="T5" s="2">
-        <v>81.400000000000006</v>
+        <v>76.3</v>
       </c>
       <c r="U5" s="2">
-        <v>57.5</v>
+        <v>58.7</v>
       </c>
       <c r="V5" s="2">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="W5" s="2">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="X5" s="2">
-        <v>12.5</v>
+        <v>14.6</v>
       </c>
       <c r="Y5" s="2">
-        <v>110.7</v>
+        <v>100.6</v>
       </c>
       <c r="Z5" s="2">
-        <v>109.8</v>
+        <v>110.4</v>
       </c>
       <c r="AA5" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB5" s="2">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AC5" s="2">
-        <v>-6.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>109.7</v>
+        <v>109.6</v>
       </c>
       <c r="B6" s="2">
-        <v>114.2</v>
+        <v>109.2</v>
       </c>
       <c r="C6" s="2">
-        <v>0.50800000000000001</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="D6" s="2">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="E6" s="2">
-        <v>27</v>
+        <v>23.2</v>
       </c>
       <c r="F6" s="2">
-        <v>77.900000000000006</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="G6" s="2">
-        <v>60.8</v>
+        <v>54.9</v>
       </c>
       <c r="H6" s="2">
-        <v>10.5</v>
+        <v>7.5</v>
       </c>
       <c r="I6" s="2">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="J6" s="2">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="K6" s="2">
+        <v>110.8</v>
+      </c>
+      <c r="L6" s="2">
+        <v>110.4</v>
+      </c>
+      <c r="M6" s="2">
+        <v>13</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="O6" s="2">
+        <v>109.1</v>
+      </c>
+      <c r="P6" s="2">
         <v>108.5</v>
       </c>
-      <c r="L6" s="2">
-        <v>112.9</v>
-      </c>
-      <c r="M6" s="2">
-        <v>11</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="O6" s="2">
-        <v>111</v>
-      </c>
-      <c r="P6" s="2">
-        <v>109.2</v>
-      </c>
       <c r="Q6" s="2">
-        <v>0.53900000000000003</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="R6" s="2">
-        <v>0.22</v>
+        <v>0.191</v>
       </c>
       <c r="S6" s="2">
-        <v>19.5</v>
+        <v>23.7</v>
       </c>
       <c r="T6" s="2">
-        <v>78</v>
+        <v>77.5</v>
       </c>
       <c r="U6" s="2">
-        <v>63.9</v>
+        <v>58</v>
       </c>
       <c r="V6" s="2">
-        <v>8.9</v>
+        <v>7.1</v>
       </c>
       <c r="W6" s="2">
-        <v>4.8</v>
+        <v>6.6</v>
       </c>
       <c r="X6" s="2">
-        <v>12.5</v>
+        <v>14.3</v>
       </c>
       <c r="Y6" s="2">
-        <v>109.4</v>
+        <v>109.6</v>
       </c>
       <c r="Z6" s="2">
-        <v>107.6</v>
+        <v>108.9</v>
       </c>
       <c r="AA6" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AB6" s="2">
-        <v>0.67</v>
+        <v>0.25</v>
       </c>
       <c r="AC6" s="2">
-        <v>-2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>99.1</v>
+        <v>104.5</v>
       </c>
       <c r="B7" s="2">
-        <v>106.7</v>
+        <v>106.1</v>
       </c>
       <c r="C7" s="2">
-        <v>0.47299999999999998</v>
+        <v>0.51</v>
       </c>
       <c r="D7" s="2">
-        <v>0.24099999999999999</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="E7" s="2">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="F7" s="2">
-        <v>75.7</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="G7" s="2">
-        <v>56.4</v>
+        <v>56</v>
       </c>
       <c r="H7" s="2">
         <v>7.1</v>
       </c>
       <c r="I7" s="2">
-        <v>4.0999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="J7" s="2">
-        <v>13.8</v>
+        <v>11.5</v>
       </c>
       <c r="K7" s="2">
-        <v>99.6</v>
+        <v>106.6</v>
       </c>
       <c r="L7" s="2">
-        <v>107.3</v>
+        <v>108.3</v>
       </c>
       <c r="M7" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N7" s="2">
-        <v>0.5</v>
+        <v>0.83333333330000003</v>
       </c>
       <c r="O7" s="2">
-        <v>110.9</v>
+        <v>103.8</v>
       </c>
       <c r="P7" s="2">
-        <v>111.5</v>
+        <v>98</v>
       </c>
       <c r="Q7" s="2">
-        <v>0.52800000000000002</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="R7" s="2">
-        <v>0.24299999999999999</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="S7" s="2">
-        <v>20.8</v>
+        <v>21.5</v>
       </c>
       <c r="T7" s="2">
-        <v>76.2</v>
+        <v>79.7</v>
       </c>
       <c r="U7" s="2">
-        <v>56.1</v>
+        <v>59.8</v>
       </c>
       <c r="V7" s="2">
-        <v>6.9</v>
+        <v>8.4</v>
       </c>
       <c r="W7" s="2">
-        <v>5.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="X7" s="2">
-        <v>12.6</v>
+        <v>13.3</v>
       </c>
       <c r="Y7" s="2">
-        <v>109.8</v>
+        <v>107.6</v>
       </c>
       <c r="Z7" s="2">
-        <v>110.3</v>
+        <v>101.6</v>
       </c>
       <c r="AA7" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB7" s="2">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AC7" s="2">
-        <v>-4.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>100.5</v>
+        <v>107.8</v>
       </c>
       <c r="B8" s="2">
-        <v>111.9</v>
+        <v>114.4</v>
       </c>
       <c r="C8" s="2">
-        <v>0.47399999999999998</v>
+        <v>0.498</v>
       </c>
       <c r="D8" s="2">
-        <v>0.20100000000000001</v>
+        <v>0.189</v>
       </c>
       <c r="E8" s="2">
-        <v>25.6</v>
+        <v>27.6</v>
       </c>
       <c r="F8" s="2">
-        <v>78.400000000000006</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="G8" s="2">
-        <v>62</v>
+        <v>59.7</v>
       </c>
       <c r="H8" s="2">
-        <v>7.7</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I8" s="2">
-        <v>4.4000000000000004</v>
+        <v>5.9</v>
       </c>
       <c r="J8" s="2">
-        <v>13.9</v>
+        <v>12.1</v>
       </c>
       <c r="K8" s="2">
+        <v>107.3</v>
+      </c>
+      <c r="L8" s="2">
+        <v>113.8</v>
+      </c>
+      <c r="M8" s="2">
+        <v>13</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.57142857140000003</v>
+      </c>
+      <c r="O8" s="2">
         <v>101.8</v>
       </c>
-      <c r="L8" s="2">
-        <v>113.3</v>
-      </c>
-      <c r="M8" s="2">
-        <v>12</v>
-      </c>
-      <c r="N8" s="2">
+      <c r="P8" s="2">
+        <v>111</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0.502</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="S8" s="2">
+        <v>21</v>
+      </c>
+      <c r="T8" s="2">
+        <v>76.7</v>
+      </c>
+      <c r="U8" s="2">
+        <v>55</v>
+      </c>
+      <c r="V8" s="2">
+        <v>8</v>
+      </c>
+      <c r="W8" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="X8" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>99.4</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>108.4</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>13</v>
+      </c>
+      <c r="AB8" s="2">
         <v>0</v>
       </c>
-      <c r="O8" s="2">
-        <v>106.6</v>
-      </c>
-      <c r="P8" s="2">
-        <v>103.4</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>0.53400000000000003</v>
-      </c>
-      <c r="R8" s="2">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="S8" s="2">
-        <v>16.3</v>
-      </c>
-      <c r="T8" s="2">
-        <v>78.5</v>
-      </c>
-      <c r="U8" s="2">
-        <v>62.3</v>
-      </c>
-      <c r="V8" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="W8" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="X8" s="2">
-        <v>14.3</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>106.7</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>103.5</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>12</v>
-      </c>
-      <c r="AB8" s="2">
-        <v>0.67</v>
-      </c>
       <c r="AC8" s="2">
-        <v>-9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>110</v>
+        <v>104.6</v>
       </c>
       <c r="B9" s="1">
-        <v>107.9</v>
+        <v>109</v>
       </c>
       <c r="C9" s="1">
-        <v>0.52300000000000002</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="D9" s="1">
         <v>0.185</v>
       </c>
       <c r="E9" s="1">
-        <v>20.6</v>
+        <v>26.2</v>
       </c>
       <c r="F9" s="1">
-        <v>77.3</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="G9" s="1">
-        <v>64.599999999999994</v>
+        <v>61.6</v>
       </c>
       <c r="H9" s="1">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="I9" s="1">
         <v>5.8</v>
       </c>
       <c r="J9" s="1">
-        <v>11.4</v>
+        <v>14.2</v>
       </c>
       <c r="K9" s="1">
-        <v>107</v>
+        <v>103.9</v>
       </c>
       <c r="L9" s="1">
-        <v>105</v>
+        <v>108.3</v>
       </c>
       <c r="M9" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N9" s="1">
-        <v>0.4</v>
+        <v>0.28571428570000001</v>
       </c>
       <c r="O9" s="1">
-        <v>102.8</v>
+        <v>112</v>
       </c>
       <c r="P9" s="1">
-        <v>105.8</v>
+        <v>106.3</v>
       </c>
       <c r="Q9" s="1">
-        <v>0.50600000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="R9" s="1">
-        <v>0.23699999999999999</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="S9" s="1">
-        <v>21.3</v>
+        <v>19</v>
       </c>
       <c r="T9" s="1">
-        <v>79.599999999999994</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="U9" s="1">
-        <v>54.9</v>
+        <v>62.1</v>
       </c>
       <c r="V9" s="1">
-        <v>6.9</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="W9" s="1">
-        <v>4.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="X9" s="1">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="Y9" s="1">
-        <v>105.3</v>
+        <v>109.9</v>
       </c>
       <c r="Z9" s="1">
-        <v>108.4</v>
+        <v>104.3</v>
       </c>
       <c r="AA9" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB9" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AC9" s="1">
-        <v>-2.5</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>101.8</v>
+        <v>99.3</v>
       </c>
       <c r="B10" s="1">
-        <v>98.5</v>
+        <v>107.5</v>
       </c>
       <c r="C10" s="1">
-        <v>0.52300000000000002</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="D10" s="1">
-        <v>0.18</v>
+        <v>0.223</v>
       </c>
       <c r="E10" s="1">
-        <v>20.5</v>
+        <v>22.1</v>
       </c>
       <c r="F10" s="1">
-        <v>80.2</v>
+        <v>76.2</v>
       </c>
       <c r="G10" s="1">
-        <v>59.1</v>
+        <v>53.9</v>
       </c>
       <c r="H10" s="1">
-        <v>8.5</v>
+        <v>7.3</v>
       </c>
       <c r="I10" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J10" s="1">
-        <v>14.1</v>
+        <v>13.3</v>
       </c>
       <c r="K10" s="1">
-        <v>104.7</v>
+        <v>100.1</v>
       </c>
       <c r="L10" s="1">
-        <v>101.2</v>
+        <v>108.3</v>
       </c>
       <c r="M10" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N10" s="1">
-        <v>0.83333333330000003</v>
+        <v>0.5</v>
       </c>
       <c r="O10" s="1">
-        <v>107.4</v>
+        <v>110.6</v>
       </c>
       <c r="P10" s="1">
-        <v>111.4</v>
+        <v>104</v>
       </c>
       <c r="Q10" s="1">
-        <v>0.51100000000000001</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="R10" s="1">
-        <v>0.20599999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="S10" s="1">
-        <v>109.1</v>
+        <v>26.4</v>
       </c>
       <c r="T10" s="1">
-        <v>113.2</v>
+        <v>80.3</v>
       </c>
       <c r="U10" s="1">
-        <v>56.2</v>
+        <v>58.9</v>
       </c>
       <c r="V10" s="1">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="W10" s="1">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="X10" s="1">
-        <v>11.8</v>
+        <v>13.4</v>
       </c>
       <c r="Y10" s="1">
-        <v>109.1</v>
+        <v>111.8</v>
       </c>
       <c r="Z10" s="1">
-        <v>113.2</v>
+        <v>105.2</v>
       </c>
       <c r="AA10" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB10" s="1">
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="AC10" s="1">
-        <v>4</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>115.9</v>
+        <v>108.6</v>
       </c>
       <c r="B11" s="1">
-        <v>102.3</v>
+        <v>109</v>
       </c>
       <c r="C11" s="1">
-        <v>0.56000000000000005</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="D11" s="1">
-        <v>0.23300000000000001</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>22.4</v>
+        <v>23.4</v>
       </c>
       <c r="F11" s="1">
-        <v>81.099999999999994</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="G11" s="1">
-        <v>70.7</v>
+        <v>58.1</v>
       </c>
       <c r="H11" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J11" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="K11" s="1">
+        <v>109.9</v>
+      </c>
+      <c r="L11" s="1">
+        <v>110.3</v>
+      </c>
+      <c r="M11" s="1">
+        <v>14</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.83333333330000003</v>
+      </c>
+      <c r="O11" s="1">
+        <v>105.4</v>
+      </c>
+      <c r="P11" s="1">
+        <v>104.3</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0.498</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="S11" s="1">
+        <v>29.3</v>
+      </c>
+      <c r="T11" s="1">
+        <v>77</v>
+      </c>
+      <c r="U11" s="1">
+        <v>51.4</v>
+      </c>
+      <c r="V11" s="1">
         <v>10.5</v>
       </c>
-      <c r="I11" s="1">
-        <v>4.8</v>
-      </c>
-      <c r="J11" s="1">
-        <v>13.9</v>
-      </c>
-      <c r="K11" s="1">
-        <v>113.1</v>
-      </c>
-      <c r="L11" s="1">
-        <v>99.8</v>
-      </c>
-      <c r="M11" s="1">
-        <v>11</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="O11" s="1">
+      <c r="W11" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X11" s="1">
+        <v>11.7</v>
+      </c>
+      <c r="Y11" s="1">
         <v>109.6</v>
       </c>
-      <c r="P11" s="1">
-        <v>102.4</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>0.52300000000000002</v>
-      </c>
-      <c r="R11" s="1">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="S11" s="1">
-        <v>21</v>
-      </c>
-      <c r="T11" s="1">
-        <v>78.5</v>
-      </c>
-      <c r="U11" s="1">
-        <v>56.9</v>
-      </c>
-      <c r="V11" s="1">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="W11" s="1">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="X11" s="1">
-        <v>11.3</v>
-      </c>
-      <c r="Y11" s="1">
-        <v>111.7</v>
-      </c>
       <c r="Z11" s="1">
-        <v>104.3</v>
+        <v>108.4</v>
       </c>
       <c r="AA11" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AB11" s="1">
-        <v>0.75</v>
+        <v>0.83333333330000003</v>
       </c>
       <c r="AC11" s="1">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>112.3</v>
+        <v>110.3</v>
       </c>
       <c r="B12" s="1">
-        <v>112.8</v>
+        <v>111.9</v>
       </c>
       <c r="C12" s="1">
-        <v>0.53200000000000003</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="D12" s="1">
         <v>0.219</v>
@@ -1541,76 +1541,76 @@
         <v>21.8</v>
       </c>
       <c r="F12" s="1">
-        <v>75</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="G12" s="1">
-        <v>57.2</v>
+        <v>57.8</v>
       </c>
       <c r="H12" s="1">
-        <v>8.8000000000000007</v>
+        <v>8.9</v>
       </c>
       <c r="I12" s="1">
         <v>6.2</v>
       </c>
       <c r="J12" s="1">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="K12" s="1">
-        <v>106.4</v>
+        <v>105.6</v>
       </c>
       <c r="L12" s="1">
-        <v>106.8</v>
+        <v>107.1</v>
       </c>
       <c r="M12" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N12" s="1">
+        <v>0.63636363640000004</v>
+      </c>
+      <c r="O12" s="1">
+        <v>107.6</v>
+      </c>
+      <c r="P12" s="1">
+        <v>102.7</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="S12" s="1">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="T12" s="1">
+        <v>78.2</v>
+      </c>
+      <c r="U12" s="1">
+        <v>56.2</v>
+      </c>
+      <c r="V12" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="W12" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="X12" s="1">
+        <v>12.1</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>109.4</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>104.4</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>13</v>
+      </c>
+      <c r="AB12" s="1">
         <v>0.66666666669999997</v>
       </c>
-      <c r="O12" s="1">
-        <v>104.6</v>
-      </c>
-      <c r="P12" s="1">
-        <v>109.6</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>0.49</v>
-      </c>
-      <c r="R12" s="1">
-        <v>0.193</v>
-      </c>
-      <c r="S12" s="1">
-        <v>26.7</v>
-      </c>
-      <c r="T12" s="1">
-        <v>68.900000000000006</v>
-      </c>
-      <c r="U12" s="1">
-        <v>62.1</v>
-      </c>
-      <c r="V12" s="1">
-        <v>9.6</v>
-      </c>
-      <c r="W12" s="1">
-        <v>5.9</v>
-      </c>
-      <c r="X12" s="1">
-        <v>14.6</v>
-      </c>
-      <c r="Y12" s="1">
-        <v>104.1</v>
-      </c>
-      <c r="Z12" s="1">
-        <v>109</v>
-      </c>
-      <c r="AA12" s="1">
-        <v>10</v>
-      </c>
-      <c r="AB12" s="1">
-        <v>0.33</v>
-      </c>
       <c r="AC12" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\Flatiron\Capstone\sports_predictions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04AE447-A6F8-4648-A425-EB076E16BD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C60A6E-E4D3-4999-B7CA-3D6BAC364A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="4365" windowWidth="21600" windowHeight="11835" xr2:uid="{DD114168-415D-4080-8C71-BE6BCC24E486}"/>
+    <workbookView xWindow="1830" yWindow="3195" windowWidth="21600" windowHeight="11835" xr2:uid="{DD114168-415D-4080-8C71-BE6BCC24E486}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,19 +130,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -159,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -182,30 +176,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -522,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D21BD6-6A32-417D-9AE2-A89192511320}">
-  <dimension ref="A1:AD4"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AC3" sqref="AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,277 +632,93 @@
     </row>
     <row r="2" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>108.5</v>
+        <v>110.1</v>
       </c>
       <c r="B2" s="1">
-        <v>103.5</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1">
-        <v>0.55300000000000005</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="D2" s="1">
-        <v>0.23599999999999999</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>16.5</v>
+        <v>25.9</v>
       </c>
       <c r="F2" s="1">
-        <v>78</v>
+        <v>80.3</v>
       </c>
       <c r="G2" s="1">
-        <v>63.6</v>
+        <v>58.9</v>
       </c>
       <c r="H2" s="1">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="I2" s="1">
-        <v>5.2</v>
+        <v>2.6</v>
       </c>
       <c r="J2" s="1">
-        <v>14.1</v>
+        <v>13.7</v>
       </c>
       <c r="K2" s="1">
-        <v>109.1</v>
+        <v>111.5</v>
       </c>
       <c r="L2" s="1">
-        <v>104.1</v>
+        <v>104.3</v>
       </c>
       <c r="M2" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N2" s="1">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="O2" s="1">
-        <v>115.1</v>
+        <v>102</v>
       </c>
       <c r="P2" s="1">
-        <v>101.8</v>
+        <v>111.3</v>
       </c>
       <c r="Q2" s="1">
-        <v>0.55400000000000005</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>0.23200000000000001</v>
+        <v>0.221</v>
       </c>
       <c r="S2" s="1">
-        <v>23</v>
+        <v>25.2</v>
       </c>
       <c r="T2" s="1">
-        <v>82.1</v>
+        <v>78.5</v>
       </c>
       <c r="U2" s="1">
-        <v>70.599999999999994</v>
+        <v>63.1</v>
       </c>
       <c r="V2" s="1">
-        <v>10.6</v>
+        <v>7</v>
       </c>
       <c r="W2" s="1">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="X2" s="1">
         <v>13.8</v>
       </c>
       <c r="Y2" s="1">
-        <v>112.6</v>
+        <v>104.4</v>
       </c>
       <c r="Z2" s="1">
-        <v>99.6</v>
+        <v>113.9</v>
       </c>
       <c r="AA2" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AB2" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="AC2" s="2">
-        <v>3</v>
-      </c>
-      <c r="AD2" s="3">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>110.2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>103.5</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.53300000000000003</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="E3" s="2">
-        <v>24.8</v>
-      </c>
-      <c r="F3" s="2">
-        <v>78.3</v>
-      </c>
-      <c r="G3" s="2">
-        <v>52.2</v>
-      </c>
-      <c r="H3" s="2">
-        <v>8</v>
-      </c>
-      <c r="I3" s="2">
-        <v>5</v>
-      </c>
-      <c r="J3" s="2">
-        <v>13.7</v>
-      </c>
-      <c r="K3" s="2">
-        <v>112.2</v>
-      </c>
-      <c r="L3" s="2">
-        <v>105.5</v>
-      </c>
-      <c r="M3" s="2">
-        <v>6</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="O3" s="2">
-        <v>109.9</v>
-      </c>
-      <c r="P3" s="2">
-        <v>105.7</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0.54700000000000004</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="S3" s="2">
-        <v>22.1</v>
-      </c>
-      <c r="T3" s="2">
-        <v>72.8</v>
-      </c>
-      <c r="U3" s="2">
-        <v>57</v>
-      </c>
-      <c r="V3" s="2">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="W3" s="2">
-        <v>5.9</v>
-      </c>
-      <c r="X3" s="2">
-        <v>11.9</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>115.1</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>110.8</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>6</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="AC3" s="2">
-        <v>10</v>
-      </c>
-      <c r="AD3" s="3">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>108.5</v>
-      </c>
-      <c r="B4" s="2">
-        <v>103.3</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.43</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="E4" s="2">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="F4" s="2">
-        <v>76</v>
-      </c>
-      <c r="G4" s="2">
-        <v>59.2</v>
-      </c>
-      <c r="H4" s="2">
-        <v>9.1</v>
-      </c>
-      <c r="I4" s="2">
-        <v>5</v>
-      </c>
-      <c r="J4" s="2">
-        <v>12.7</v>
-      </c>
-      <c r="K4" s="2">
-        <v>107.6</v>
-      </c>
-      <c r="L4" s="2">
-        <v>102.4</v>
-      </c>
-      <c r="M4" s="2">
-        <v>9</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="O4" s="2">
-        <v>109.6</v>
-      </c>
-      <c r="P4" s="2">
-        <v>109.5</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0.52700000000000002</v>
-      </c>
-      <c r="R4" s="2">
-        <v>0.188</v>
-      </c>
-      <c r="S4" s="2">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="T4" s="2">
-        <v>77.400000000000006</v>
-      </c>
-      <c r="U4" s="2">
-        <v>65.599999999999994</v>
-      </c>
-      <c r="V4" s="2">
-        <v>8.9</v>
-      </c>
-      <c r="W4" s="2">
-        <v>5.2</v>
-      </c>
-      <c r="X4" s="2">
-        <v>11.6</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>107.2</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>107.1</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>7</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>0.28571428570000001</v>
-      </c>
-      <c r="AC4" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="AD4" s="3">
+        <v>0.14285714290000001</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="AD2" s="1">
         <v>2021</v>
       </c>
     </row>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\Flatiron\Capstone\sports_predictions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C60A6E-E4D3-4999-B7CA-3D6BAC364A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41E8805-4852-4D42-B27C-E9FC14D06D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1830" yWindow="3195" windowWidth="21600" windowHeight="11835" xr2:uid="{DD114168-415D-4080-8C71-BE6BCC24E486}"/>
   </bookViews>
@@ -130,7 +130,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,18 +139,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -180,9 +192,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -499,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D21BD6-6A32-417D-9AE2-A89192511320}">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AD10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AC3" sqref="AC3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,93 +650,829 @@
     </row>
     <row r="2" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>110.1</v>
+        <v>113.4</v>
       </c>
       <c r="B2" s="1">
-        <v>103</v>
+        <v>110.4</v>
       </c>
       <c r="C2" s="1">
-        <v>0.52600000000000002</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="D2" s="1">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="E2" s="1">
+        <v>30.1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>68.8</v>
+      </c>
+      <c r="G2" s="1">
+        <v>64.7</v>
+      </c>
+      <c r="H2" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="I2" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="J2" s="1">
+        <v>12.1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>111.8</v>
+      </c>
+      <c r="L2" s="1">
+        <v>108.6</v>
+      </c>
+      <c r="M2" s="1">
+        <v>7</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.71428571429999999</v>
+      </c>
+      <c r="O2" s="1">
+        <v>103.6</v>
+      </c>
+      <c r="P2" s="1">
+        <v>107.2</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="S2" s="1">
+        <v>29.7</v>
+      </c>
+      <c r="T2" s="1">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="U2" s="1">
+        <v>52.4</v>
+      </c>
+      <c r="V2" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="W2" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="X2" s="1">
+        <v>15.6</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>105.6</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>109.7</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>97</v>
+      </c>
+      <c r="B3" s="2">
+        <v>105.3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.249</v>
+      </c>
+      <c r="E3" s="2">
+        <v>29.3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="G3" s="2">
+        <v>58</v>
+      </c>
+      <c r="H3" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I3" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J3" s="2">
+        <v>15</v>
+      </c>
+      <c r="K3" s="2">
+        <v>98.8</v>
+      </c>
+      <c r="L3" s="2">
+        <v>107.3</v>
+      </c>
+      <c r="M3" s="2">
+        <v>7</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0.28571428570000001</v>
+      </c>
+      <c r="O3" s="2">
+        <v>111.5</v>
+      </c>
+      <c r="P3" s="2">
+        <v>102.2</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.253</v>
+      </c>
+      <c r="S3" s="2">
+        <v>24.6</v>
+      </c>
+      <c r="T3" s="2">
+        <v>77.3</v>
+      </c>
+      <c r="U3" s="2">
+        <v>73.3</v>
+      </c>
+      <c r="V3" s="2">
+        <v>9</v>
+      </c>
+      <c r="W3" s="2">
+        <v>5</v>
+      </c>
+      <c r="X3" s="2">
+        <v>14.4</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>110.4</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>101</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>6</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>0.83333333330000003</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>-2</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>106</v>
+      </c>
+      <c r="B4" s="2">
+        <v>112</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="E4" s="2">
+        <v>30.7</v>
+      </c>
+      <c r="F4" s="2">
+        <v>68.5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>50</v>
+      </c>
+      <c r="H4" s="2">
+        <v>8</v>
+      </c>
+      <c r="I4" s="2">
+        <v>6</v>
+      </c>
+      <c r="J4" s="2">
+        <v>15.7</v>
+      </c>
+      <c r="K4" s="2">
+        <v>105.2</v>
+      </c>
+      <c r="L4" s="2">
+        <v>111.6</v>
+      </c>
+      <c r="M4" s="2">
+        <v>5</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="O4" s="2">
+        <v>108</v>
+      </c>
+      <c r="P4" s="2">
+        <v>114.5</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.188</v>
+      </c>
+      <c r="S4" s="2">
+        <v>24</v>
+      </c>
+      <c r="T4" s="2">
+        <v>76.5</v>
+      </c>
+      <c r="U4" s="2">
+        <v>55.7</v>
+      </c>
+      <c r="V4" s="2">
+        <v>8</v>
+      </c>
+      <c r="W4" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="X4" s="2">
+        <v>14.3</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>99.8</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>106</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>104.9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>102.5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="D5" s="2">
         <v>0.24399999999999999</v>
       </c>
-      <c r="E2" s="1">
-        <v>25.9</v>
-      </c>
-      <c r="F2" s="1">
-        <v>80.3</v>
-      </c>
-      <c r="G2" s="1">
-        <v>58.9</v>
-      </c>
-      <c r="H2" s="1">
-        <v>7.6</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2.6</v>
-      </c>
-      <c r="J2" s="1">
-        <v>13.7</v>
-      </c>
-      <c r="K2" s="1">
-        <v>111.5</v>
-      </c>
-      <c r="L2" s="1">
-        <v>104.3</v>
-      </c>
-      <c r="M2" s="1">
+      <c r="E5" s="2">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="F5" s="2">
+        <v>73.7</v>
+      </c>
+      <c r="G5" s="2">
+        <v>63.8</v>
+      </c>
+      <c r="H5" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="I5" s="2">
         <v>5</v>
       </c>
-      <c r="N2" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="O2" s="1">
-        <v>102</v>
-      </c>
-      <c r="P2" s="1">
+      <c r="J5" s="2">
+        <v>14.7</v>
+      </c>
+      <c r="K5" s="2">
+        <v>102.9</v>
+      </c>
+      <c r="L5" s="2">
+        <v>101</v>
+      </c>
+      <c r="M5" s="2">
+        <v>8</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="O5" s="1">
+        <v>104.9</v>
+      </c>
+      <c r="P5" s="2">
+        <v>109.8</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="S5" s="2">
+        <v>30.8</v>
+      </c>
+      <c r="T5" s="2">
+        <v>69.8</v>
+      </c>
+      <c r="U5" s="2">
+        <v>58.3</v>
+      </c>
+      <c r="V5" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="W5" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="X5" s="2">
+        <v>16.3</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>106.3</v>
+      </c>
+      <c r="Z5" s="2">
         <v>111.3</v>
       </c>
-      <c r="Q2" s="1">
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0.221</v>
-      </c>
-      <c r="S2" s="1">
-        <v>25.2</v>
-      </c>
-      <c r="T2" s="1">
-        <v>78.5</v>
-      </c>
-      <c r="U2" s="1">
+      <c r="AA5" s="2">
+        <v>8</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>105</v>
+      </c>
+      <c r="B6" s="2">
+        <v>106.8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.497</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.191</v>
+      </c>
+      <c r="E6" s="2">
+        <v>24.5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>73.5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>52.8</v>
+      </c>
+      <c r="H6" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="J6" s="2">
+        <v>13</v>
+      </c>
+      <c r="K6" s="2">
+        <v>104</v>
+      </c>
+      <c r="L6" s="2">
+        <v>106.1</v>
+      </c>
+      <c r="M6" s="2">
+        <v>6</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.33333333329999998</v>
+      </c>
+      <c r="O6" s="2">
+        <v>94.7</v>
+      </c>
+      <c r="P6" s="2">
+        <v>106.2</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="S6" s="2">
+        <v>25.8</v>
+      </c>
+      <c r="T6" s="2">
+        <v>70.5</v>
+      </c>
+      <c r="U6" s="2">
+        <v>57.3</v>
+      </c>
+      <c r="V6" s="2">
+        <v>7</v>
+      </c>
+      <c r="W6" s="2">
+        <v>4</v>
+      </c>
+      <c r="X6" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>94.8</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>105.8</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>6</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0.33333333329999998</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>106.6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>112</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.497</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.219</v>
+      </c>
+      <c r="E7" s="2">
+        <v>30.8</v>
+      </c>
+      <c r="F7" s="2">
+        <v>73.5</v>
+      </c>
+      <c r="G7" s="2">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="H7" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="J7" s="2">
+        <v>12.6</v>
+      </c>
+      <c r="K7" s="2">
+        <v>109.4</v>
+      </c>
+      <c r="L7" s="2">
+        <v>114.8</v>
+      </c>
+      <c r="M7" s="2">
+        <v>7</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.14285714290000001</v>
+      </c>
+      <c r="O7" s="2">
+        <v>108.6</v>
+      </c>
+      <c r="P7" s="2">
+        <v>109</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="S7" s="2">
+        <v>22.5</v>
+      </c>
+      <c r="T7" s="2">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="U7" s="2">
+        <v>57.7</v>
+      </c>
+      <c r="V7" s="2">
+        <v>8</v>
+      </c>
+      <c r="W7" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="X7" s="2">
+        <v>14.3</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>107.7</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>108.3</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>-4.5</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>102.4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>94.7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.183</v>
+      </c>
+      <c r="E8" s="2">
+        <v>28.1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="G8" s="2">
+        <v>61.4</v>
+      </c>
+      <c r="H8" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="I8" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="J8" s="2">
+        <v>14.4</v>
+      </c>
+      <c r="K8" s="2">
+        <v>107</v>
+      </c>
+      <c r="L8" s="2">
+        <v>99.2</v>
+      </c>
+      <c r="M8" s="2">
+        <v>9</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.77777777780000001</v>
+      </c>
+      <c r="O8" s="2">
+        <v>106.5</v>
+      </c>
+      <c r="P8" s="2">
+        <v>104.6</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="S8" s="2">
+        <v>21.4</v>
+      </c>
+      <c r="T8" s="2">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="U8" s="2">
+        <v>56.3</v>
+      </c>
+      <c r="V8" s="2">
+        <v>8.9</v>
+      </c>
+      <c r="W8" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="X8" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>107.2</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>104.6</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>8</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>109.2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>106.8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.251</v>
+      </c>
+      <c r="E9" s="1">
+        <v>26.6</v>
+      </c>
+      <c r="F9" s="1">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="G9" s="1">
+        <v>58.6</v>
+      </c>
+      <c r="H9" s="1">
+        <v>8</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="J9" s="1">
+        <v>15.9</v>
+      </c>
+      <c r="K9" s="1">
+        <v>108.6</v>
+      </c>
+      <c r="L9" s="1">
+        <v>106</v>
+      </c>
+      <c r="M9" s="1">
+        <v>6</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.33333333329999998</v>
+      </c>
+      <c r="O9" s="1">
+        <v>106.6</v>
+      </c>
+      <c r="P9" s="1">
+        <v>103.9</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0.497</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0.188</v>
+      </c>
+      <c r="S9" s="1">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="T9" s="1">
+        <v>72.8</v>
+      </c>
+      <c r="U9" s="1">
+        <v>53.1</v>
+      </c>
+      <c r="V9" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="W9" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="X9" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>109.4</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>106.3</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>8</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>110.8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>105.9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.218</v>
+      </c>
+      <c r="E10" s="1">
+        <v>24.7</v>
+      </c>
+      <c r="F10" s="1">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="G10" s="1">
         <v>63.1</v>
       </c>
-      <c r="V2" s="1">
+      <c r="H10" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="I10" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="J10" s="1">
+        <v>13.1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>109.1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>105</v>
+      </c>
+      <c r="M10" s="1">
+        <v>8</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="O10" s="1">
+        <v>100.3</v>
+      </c>
+      <c r="P10" s="1">
+        <v>107.6</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0.216</v>
+      </c>
+      <c r="S10" s="1">
+        <v>23.3</v>
+      </c>
+      <c r="T10" s="1">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="U10" s="1">
+        <v>61.4</v>
+      </c>
+      <c r="V10" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="W10" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="X10" s="1">
+        <v>12.4</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>100.9</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>108.2</v>
+      </c>
+      <c r="AA10" s="1">
         <v>7</v>
       </c>
-      <c r="W2" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="X2" s="1">
-        <v>13.8</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>104.4</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>113.9</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>8</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>0.14285714290000001</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="AD2" s="1">
+      <c r="AB10" s="1">
+        <v>0.42857142860000003</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="AD10" s="2">
         <v>2021</v>
       </c>
     </row>
